--- a/hw4_GA/Instances/BKS.xlsx
+++ b/hw4_GA/Instances/BKS.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FDBEF2-2826-4549-8515-F64065F9CE03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="504" yWindow="1296" windowWidth="8064" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marc" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
   <si>
     <t>Marc</t>
   </si>
@@ -83,17 +84,41 @@
   </si>
   <si>
     <t>ρ = 75%</t>
+  </si>
+  <si>
+    <t>3500.7158</t>
+  </si>
+  <si>
+    <t>1986.89</t>
+  </si>
+  <si>
+    <t>2902.48</t>
+  </si>
+  <si>
+    <t>3215.310</t>
+  </si>
+  <si>
+    <t>3075.87</t>
+  </si>
+  <si>
+    <t>2251.90</t>
+  </si>
+  <si>
+    <t>2094.59</t>
+  </si>
+  <si>
+    <t>2730.05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -101,13 +126,20 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -132,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -143,6 +175,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,25 +455,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.09765625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -448,96 +481,120 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>2016.57</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>1947.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>2602.56</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>2759.13</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>3028.83</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>2239.09</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>3343.34</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>3116.84</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/hw4_GA/Instances/BKS.xlsx
+++ b/hw4_GA/Instances/BKS.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FDBEF2-2826-4549-8515-F64065F9CE03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6C27AA-7D45-4C4D-B352-36CCB6B1DB99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="504" yWindow="1296" windowWidth="8064" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="504" yWindow="1296" windowWidth="13056" windowHeight="10260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marc" sheetId="1" r:id="rId1"/>
@@ -458,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -585,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/hw4_GA/Instances/BKS.xlsx
+++ b/hw4_GA/Instances/BKS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6C27AA-7D45-4C4D-B352-36CCB6B1DB99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8343E41-935F-46D0-B47D-5606831A818B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="504" yWindow="1296" windowWidth="13056" windowHeight="10260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
   <si>
     <t>Marc</t>
   </si>
@@ -95,9 +95,6 @@
     <t>2902.48</t>
   </si>
   <si>
-    <t>3215.310</t>
-  </si>
-  <si>
     <t>3075.87</t>
   </si>
   <si>
@@ -108,6 +105,12 @@
   </si>
   <si>
     <t>2730.05</t>
+  </si>
+  <si>
+    <t>3125.264</t>
+  </si>
+  <si>
+    <t>18125.28</t>
   </si>
 </sst>
 </file>
@@ -459,7 +462,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -489,7 +492,7 @@
         <v>2016.57</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -522,7 +525,7 @@
         <v>2759.13</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -533,7 +536,7 @@
         <v>3028.83</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -544,7 +547,7 @@
         <v>2239.09</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -566,7 +569,7 @@
         <v>3116.84</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -583,10 +586,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -597,12 +600,12 @@
     <col min="4" max="4" width="15.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -622,7 +625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -641,8 +644,11 @@
       <c r="F3">
         <v>5759.25</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -662,7 +668,7 @@
         <v>9247.92</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -682,7 +688,7 @@
         <v>12904.6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -702,7 +708,7 @@
         <v>17810.400000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -722,7 +728,7 @@
         <v>8960.31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -742,7 +748,7 @@
         <v>10976.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -762,7 +768,7 @@
         <v>12485.8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -782,7 +788,7 @@
         <v>13331.2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -802,7 +808,7 @@
         <v>710.64</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -822,12 +828,12 @@
         <v>908.89</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>

--- a/hw4_GA/Instances/BKS.xlsx
+++ b/hw4_GA/Instances/BKS.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8343E41-935F-46D0-B47D-5606831A818B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA92FC97-D555-402D-A741-17A7ECA16CF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="504" yWindow="1296" windowWidth="13056" windowHeight="10260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3192" yWindow="1272" windowWidth="18072" windowHeight="10260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marc" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
   <si>
     <t>Marc</t>
   </si>
@@ -110,7 +110,22 @@
     <t>3125.264</t>
   </si>
   <si>
-    <t>18125.28</t>
+    <t>best</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>variance</t>
+  </si>
+  <si>
+    <t>avg_time</t>
+  </si>
+  <si>
+    <t>vehicles</t>
   </si>
 </sst>
 </file>
@@ -586,10 +601,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:M69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -600,12 +615,12 @@
     <col min="4" max="4" width="15.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -624,8 +639,27 @@
       <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -644,11 +678,8 @@
       <c r="F3">
         <v>5759.25</v>
       </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -668,7 +699,7 @@
         <v>9247.92</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -688,7 +719,7 @@
         <v>12904.6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -708,7 +739,7 @@
         <v>17810.400000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -728,7 +759,7 @@
         <v>8960.31</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -748,7 +779,7 @@
         <v>10976.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -768,7 +799,7 @@
         <v>12485.8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -788,7 +819,7 @@
         <v>13331.2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -808,7 +839,7 @@
         <v>710.64</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -828,12 +859,12 @@
         <v>908.89</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>

--- a/hw4_GA/Instances/BKS.xlsx
+++ b/hw4_GA/Instances/BKS.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA92FC97-D555-402D-A741-17A7ECA16CF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC0046B-9713-49E0-B8CB-F72E547A3C01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3192" yWindow="1272" windowWidth="18072" windowHeight="10260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3192" yWindow="1272" windowWidth="18576" windowHeight="10716" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marc" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="97">
   <si>
     <t>Marc</t>
   </si>
@@ -126,6 +126,192 @@
   </si>
   <si>
     <t>vehicles</t>
+  </si>
+  <si>
+    <t>17040.787</t>
+  </si>
+  <si>
+    <t>18275.51</t>
+  </si>
+  <si>
+    <t>17726.10</t>
+  </si>
+  <si>
+    <t>406.655</t>
+  </si>
+  <si>
+    <t>16.798</t>
+  </si>
+  <si>
+    <t>22933.83</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23503.14</t>
+  </si>
+  <si>
+    <t>24101.87</t>
+  </si>
+  <si>
+    <t>287.613</t>
+  </si>
+  <si>
+    <t>32.732</t>
+  </si>
+  <si>
+    <t>29986.90</t>
+  </si>
+  <si>
+    <t>31644.016</t>
+  </si>
+  <si>
+    <t>30851.001</t>
+  </si>
+  <si>
+    <t>524.867</t>
+  </si>
+  <si>
+    <t>73.037</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>41385.851</t>
+  </si>
+  <si>
+    <t>43103.164</t>
+  </si>
+  <si>
+    <t>42151.044</t>
+  </si>
+  <si>
+    <t>503.638</t>
+  </si>
+  <si>
+    <t>115.14</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>16526.346</t>
+  </si>
+  <si>
+    <t>17702.957</t>
+  </si>
+  <si>
+    <t>17232.059</t>
+  </si>
+  <si>
+    <t>334.257</t>
+  </si>
+  <si>
+    <t>56.114</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>22204.495</t>
+  </si>
+  <si>
+    <t>23504.54</t>
+  </si>
+  <si>
+    <t>22861.756</t>
+  </si>
+  <si>
+    <t>372.046</t>
+  </si>
+  <si>
+    <t>64.244</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>29269.600</t>
+  </si>
+  <si>
+    <t>378.717</t>
+  </si>
+  <si>
+    <t>71.651</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>28795.248</t>
+  </si>
+  <si>
+    <t>28235.495</t>
+  </si>
+  <si>
+    <t>33223.846</t>
+  </si>
+  <si>
+    <t>35153.692</t>
+  </si>
+  <si>
+    <t>34325.436</t>
+  </si>
+  <si>
+    <t>519.279</t>
+  </si>
+  <si>
+    <t>84.987</t>
+  </si>
+  <si>
+    <t>1043.871</t>
+  </si>
+  <si>
+    <t>1099.309</t>
+  </si>
+  <si>
+    <t>1072.537</t>
+  </si>
+  <si>
+    <t>15.814</t>
+  </si>
+  <si>
+    <t>7.5435</t>
+  </si>
+  <si>
+    <t>14.0</t>
+  </si>
+  <si>
+    <t>1294.649</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1314.115</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1336.658</t>
+  </si>
+  <si>
+    <t>12.435</t>
+  </si>
+  <si>
+    <t>10.420</t>
+  </si>
+  <si>
+    <t>16.0</t>
+  </si>
+  <si>
+    <t>9188.307</t>
+  </si>
+  <si>
+    <t>9899.387</t>
+  </si>
+  <si>
+    <t>9592.559</t>
+  </si>
+  <si>
+    <t>166.623</t>
+  </si>
+  <si>
+    <t>13.658</t>
   </si>
 </sst>
 </file>
@@ -601,10 +787,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M69"/>
+  <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -678,6 +864,24 @@
       <c r="F3">
         <v>5759.25</v>
       </c>
+      <c r="H3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -698,6 +902,24 @@
       <c r="F4">
         <v>9247.92</v>
       </c>
+      <c r="H4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -718,6 +940,24 @@
       <c r="F5">
         <v>12904.6</v>
       </c>
+      <c r="H5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -738,6 +978,24 @@
       <c r="F6">
         <v>17810.400000000001</v>
       </c>
+      <c r="H6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -758,6 +1016,24 @@
       <c r="F7">
         <v>8960.31</v>
       </c>
+      <c r="H7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -778,6 +1054,24 @@
       <c r="F8">
         <v>10976.5</v>
       </c>
+      <c r="H8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -798,6 +1092,24 @@
       <c r="F9">
         <v>12485.8</v>
       </c>
+      <c r="H9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -818,6 +1130,24 @@
       <c r="F10">
         <v>13331.2</v>
       </c>
+      <c r="H10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -838,6 +1168,24 @@
       <c r="F11">
         <v>710.64</v>
       </c>
+      <c r="H11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -858,11 +1206,51 @@
       <c r="F12">
         <v>908.89</v>
       </c>
+      <c r="H12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -883,8 +1271,14 @@
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -903,8 +1297,26 @@
       <c r="F17">
         <v>6051.04</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
@@ -923,8 +1335,14 @@
       <c r="F18">
         <v>13692.6</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
@@ -943,8 +1361,14 @@
       <c r="F19">
         <v>9340.7000000000007</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>7</v>
       </c>
@@ -963,8 +1387,14 @@
       <c r="F20">
         <v>12348.1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>9</v>
       </c>
@@ -983,8 +1413,14 @@
       <c r="F21">
         <v>717.63</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>11</v>
       </c>
@@ -1003,8 +1439,14 @@
       <c r="F22">
         <v>1131.8399999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>13</v>
       </c>
@@ -1023,8 +1465,14 @@
       <c r="F23">
         <v>1034.3</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>15</v>
       </c>
@@ -1043,8 +1491,14 @@
       <c r="F24">
         <v>1667.08</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>17</v>
       </c>
@@ -1063,8 +1517,14 @@
       <c r="F25">
         <v>795.33</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>19</v>
       </c>
@@ -1083,14 +1543,58 @@
       <c r="F26">
         <v>1538.2</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1613,14 @@
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>11</v>
       </c>
@@ -1129,8 +1639,14 @@
       <c r="F33">
         <v>1101.51</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>12</v>
       </c>
@@ -1149,8 +1665,14 @@
       <c r="F34">
         <v>1311.9175</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>13</v>
       </c>
@@ -1169,8 +1691,14 @@
       <c r="F35">
         <v>1053.47</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>14</v>
       </c>
@@ -1189,8 +1717,14 @@
       <c r="F36">
         <v>1342.7</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>15</v>
       </c>
@@ -1209,8 +1743,14 @@
       <c r="F37">
         <v>1657.22</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>16</v>
       </c>
@@ -1229,8 +1769,14 @@
       <c r="F38">
         <v>2003.1</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>17</v>
       </c>
@@ -1249,8 +1795,14 @@
       <c r="F39">
         <v>881.66</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>18</v>
       </c>
@@ -1269,8 +1821,14 @@
       <c r="F40">
         <v>1199.1249</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+    </row>
+    <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>19</v>
       </c>
@@ -1289,8 +1847,14 @@
       <c r="F41">
         <v>1612.33</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+    </row>
+    <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>20</v>
       </c>
@@ -1309,14 +1873,34 @@
       <c r="F42">
         <v>2278.64</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B44" s="2"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>11</v>
       </c>
@@ -1335,8 +1919,14 @@
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2</v>
       </c>
@@ -1355,8 +1945,14 @@
       <c r="F46">
         <v>10204.302299999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>4</v>
       </c>
@@ -1375,8 +1971,14 @@
       <c r="F47">
         <v>17077.589899999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>6</v>
       </c>
@@ -1395,8 +1997,14 @@
       <c r="F48">
         <v>11452.011399999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>8</v>
       </c>
@@ -1415,8 +2023,14 @@
       <c r="F49">
         <v>13882.227000000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>10</v>
       </c>
@@ -1435,8 +2049,14 @@
       <c r="F50">
         <v>1000.5065</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>12</v>
       </c>
@@ -1455,8 +2075,14 @@
       <c r="F51">
         <v>1475.6790000000001</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>14</v>
       </c>
@@ -1475,8 +2101,14 @@
       <c r="F52">
         <v>1520.5463999999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>16</v>
       </c>
@@ -1495,8 +2127,14 @@
       <c r="F53">
         <v>2265.5369999999998</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>18</v>
       </c>
@@ -1515,8 +2153,14 @@
       <c r="F54">
         <v>1392.1528000000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+    </row>
+    <row r="55" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>20</v>
       </c>
@@ -1535,13 +2179,41 @@
       <c r="F55">
         <v>2502.34</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>11</v>
       </c>
@@ -1560,8 +2232,14 @@
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1</v>
       </c>
@@ -1580,8 +2258,14 @@
       <c r="F60">
         <v>6293.0355</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2</v>
       </c>
@@ -1600,8 +2284,14 @@
       <c r="F61">
         <v>9879.5854999999992</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>4</v>
       </c>
@@ -1620,8 +2310,14 @@
       <c r="F62">
         <v>16130.390100000001</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>5</v>
       </c>
@@ -1640,8 +2336,14 @@
       <c r="F63">
         <v>8394.1106</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>7</v>
       </c>
@@ -1660,8 +2362,14 @@
       <c r="F64">
         <v>11346.1129</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>8</v>
       </c>
@@ -1680,8 +2388,14 @@
       <c r="F65">
         <v>13188.934999999999</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>10</v>
       </c>
@@ -1700,8 +2414,14 @@
       <c r="F66">
         <v>837.51599999999996</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>11</v>
       </c>
@@ -1720,8 +2440,14 @@
       <c r="F67">
         <v>1054.1331</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>19</v>
       </c>
@@ -1740,8 +2466,14 @@
       <c r="F68">
         <v>1667.4536000000001</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>20</v>
       </c>
@@ -1760,6 +2492,28 @@
       <c r="F69">
         <v>2128.5967000000001</v>
       </c>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hw4_GA/Instances/BKS.xlsx
+++ b/hw4_GA/Instances/BKS.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC0046B-9713-49E0-B8CB-F72E547A3C01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4867701E-8DA8-4830-84A4-0AF10AF94042}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3192" yWindow="1272" windowWidth="18576" windowHeight="10716" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3192" yWindow="1272" windowWidth="18900" windowHeight="10716" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Marc" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="206">
   <si>
     <t>Marc</t>
   </si>
@@ -125,9 +125,6 @@
     <t>avg_time</t>
   </si>
   <si>
-    <t>vehicles</t>
-  </si>
-  <si>
     <t>17040.787</t>
   </si>
   <si>
@@ -312,6 +309,336 @@
   </si>
   <si>
     <t>13.658</t>
+  </si>
+  <si>
+    <t>17823.207</t>
+  </si>
+  <si>
+    <t>18584.467</t>
+  </si>
+  <si>
+    <t>18334.969</t>
+  </si>
+  <si>
+    <t>210.22</t>
+  </si>
+  <si>
+    <t>50.949</t>
+  </si>
+  <si>
+    <t>avg vehicles</t>
+  </si>
+  <si>
+    <t>11125.28</t>
+  </si>
+  <si>
+    <t>11579.15</t>
+  </si>
+  <si>
+    <t>11383.95</t>
+  </si>
+  <si>
+    <t>140.223</t>
+  </si>
+  <si>
+    <t>41.615</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16028.19</t>
+  </si>
+  <si>
+    <t>17077.06</t>
+  </si>
+  <si>
+    <t>16513.08</t>
+  </si>
+  <si>
+    <t>301.396</t>
+  </si>
+  <si>
+    <t>45.701</t>
+  </si>
+  <si>
+    <t>1032.50</t>
+  </si>
+  <si>
+    <t>1128.57</t>
+  </si>
+  <si>
+    <t>1080.82</t>
+  </si>
+  <si>
+    <t>31.236</t>
+  </si>
+  <si>
+    <t>7.7899</t>
+  </si>
+  <si>
+    <t>1621.83</t>
+  </si>
+  <si>
+    <t>1757.85</t>
+  </si>
+  <si>
+    <t>1688.73</t>
+  </si>
+  <si>
+    <t>34.881</t>
+  </si>
+  <si>
+    <t>16.417</t>
+  </si>
+  <si>
+    <t>18.4</t>
+  </si>
+  <si>
+    <t>1786.37</t>
+  </si>
+  <si>
+    <t>1872.01</t>
+  </si>
+  <si>
+    <t>1818.89</t>
+  </si>
+  <si>
+    <t>26.135</t>
+  </si>
+  <si>
+    <t>4.2577</t>
+  </si>
+  <si>
+    <t>28.0</t>
+  </si>
+  <si>
+    <t>2892.85</t>
+  </si>
+  <si>
+    <t>2987.39</t>
+  </si>
+  <si>
+    <t>2938.43</t>
+  </si>
+  <si>
+    <t>32.63</t>
+  </si>
+  <si>
+    <t>9.6391</t>
+  </si>
+  <si>
+    <t>36.4</t>
+  </si>
+  <si>
+    <t>1738.09</t>
+  </si>
+  <si>
+    <t>1823.69</t>
+  </si>
+  <si>
+    <t>1780.32</t>
+  </si>
+  <si>
+    <t>26.223</t>
+  </si>
+  <si>
+    <t>5.8484</t>
+  </si>
+  <si>
+    <t>21.4</t>
+  </si>
+  <si>
+    <t>3619.93</t>
+  </si>
+  <si>
+    <t>3776.65</t>
+  </si>
+  <si>
+    <t>3694.05</t>
+  </si>
+  <si>
+    <t>47.559</t>
+  </si>
+  <si>
+    <t>8.0909</t>
+  </si>
+  <si>
+    <t>33.7</t>
+  </si>
+  <si>
+    <t>1220.54</t>
+  </si>
+  <si>
+    <t>1323.74</t>
+  </si>
+  <si>
+    <t>1285.73</t>
+  </si>
+  <si>
+    <t>26.892</t>
+  </si>
+  <si>
+    <t>18.547</t>
+  </si>
+  <si>
+    <t>17.0</t>
+  </si>
+  <si>
+    <t>1283.13</t>
+  </si>
+  <si>
+    <t>1334.24</t>
+  </si>
+  <si>
+    <t>1313.73</t>
+  </si>
+  <si>
+    <t>18.24</t>
+  </si>
+  <si>
+    <t>4.1538</t>
+  </si>
+  <si>
+    <t>27.0</t>
+  </si>
+  <si>
+    <t>1690.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1738.92</t>
+  </si>
+  <si>
+    <t>1714.35</t>
+  </si>
+  <si>
+    <t>17.303</t>
+  </si>
+  <si>
+    <t>5.4749</t>
+  </si>
+  <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t>1468.56</t>
+  </si>
+  <si>
+    <t>1538.39</t>
+  </si>
+  <si>
+    <t>1512.06</t>
+  </si>
+  <si>
+    <t>20.35</t>
+  </si>
+  <si>
+    <t>24.100</t>
+  </si>
+  <si>
+    <t>18.0</t>
+  </si>
+  <si>
+    <t>2056.48</t>
+  </si>
+  <si>
+    <t>2146.57</t>
+  </si>
+  <si>
+    <t>2088.56</t>
+  </si>
+  <si>
+    <t>28.903</t>
+  </si>
+  <si>
+    <t>7.9538</t>
+  </si>
+  <si>
+    <t>35.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1081.14</t>
+  </si>
+  <si>
+    <t>1117.64</t>
+  </si>
+  <si>
+    <t>1101.15</t>
+  </si>
+  <si>
+    <t>11.417</t>
+  </si>
+  <si>
+    <t>5.1322</t>
+  </si>
+  <si>
+    <t>22.0</t>
+  </si>
+  <si>
+    <t>2483.53</t>
+  </si>
+  <si>
+    <t>2574.27</t>
+  </si>
+  <si>
+    <t>2536.66</t>
+  </si>
+  <si>
+    <t>31.63</t>
+  </si>
+  <si>
+    <t>11.093</t>
+  </si>
+  <si>
+    <t>38.0</t>
+  </si>
+  <si>
+    <t>1535.39</t>
+  </si>
+  <si>
+    <t>1586.88</t>
+  </si>
+  <si>
+    <t>1562.26</t>
+  </si>
+  <si>
+    <t>5.3856</t>
+  </si>
+  <si>
+    <t>15.86</t>
+  </si>
+  <si>
+    <t>2049.17</t>
+  </si>
+  <si>
+    <t>2132.47</t>
+  </si>
+  <si>
+    <t>2102.60</t>
+  </si>
+  <si>
+    <t>25.443</t>
+  </si>
+  <si>
+    <t>6.6691</t>
+  </si>
+  <si>
+    <t>33.0</t>
+  </si>
+  <si>
+    <t>2856.31</t>
+  </si>
+  <si>
+    <t>2993.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2941.40</t>
+  </si>
+  <si>
+    <t>37.502</t>
+  </si>
+  <si>
+    <t>7.7780</t>
+  </si>
+  <si>
+    <t>39.0</t>
   </si>
 </sst>
 </file>
@@ -789,8 +1116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -799,6 +1126,11 @@
     <col min="2" max="2" width="15.69921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.09765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.796875" customWidth="1"/>
+    <col min="9" max="9" width="10.3984375" customWidth="1"/>
+    <col min="10" max="10" width="9.69921875" customWidth="1"/>
+    <col min="11" max="11" width="9.59765625" customWidth="1"/>
+    <col min="13" max="13" width="12.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -842,7 +1174,7 @@
         <v>33</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -865,19 +1197,19 @@
         <v>5759.25</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="M3" s="1">
         <v>7</v>
@@ -903,22 +1235,22 @@
         <v>9247.92</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="M4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -941,22 +1273,22 @@
         <v>12904.6</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -979,22 +1311,22 @@
         <v>17810.400000000001</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1017,22 +1349,22 @@
         <v>8960.31</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1055,22 +1387,22 @@
         <v>10976.5</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1093,22 +1425,22 @@
         <v>12485.8</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1131,22 +1463,22 @@
         <v>13331.2</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="M10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1169,22 +1501,22 @@
         <v>710.64</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1207,22 +1539,22 @@
         <v>908.89</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1298,22 +1630,22 @@
         <v>6051.04</v>
       </c>
       <c r="H17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K17" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="L17" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="M17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1335,12 +1667,24 @@
       <c r="F18">
         <v>13692.6</v>
       </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -1361,12 +1705,24 @@
       <c r="F19">
         <v>9340.7000000000007</v>
       </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -1387,12 +1743,24 @@
       <c r="F20">
         <v>12348.1</v>
       </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -1413,12 +1781,24 @@
       <c r="F21">
         <v>717.63</v>
       </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -1439,12 +1819,24 @@
       <c r="F22">
         <v>1131.8399999999999</v>
       </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -1465,12 +1857,24 @@
       <c r="F23">
         <v>1034.3</v>
       </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -1491,12 +1895,24 @@
       <c r="F24">
         <v>1667.08</v>
       </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -1517,12 +1933,24 @@
       <c r="F25">
         <v>795.33</v>
       </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
+      <c r="H25" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -1543,12 +1971,24 @@
       <c r="F26">
         <v>1538.2</v>
       </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H27" s="1"/>
@@ -1639,12 +2079,24 @@
       <c r="F33">
         <v>1101.51</v>
       </c>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
+      <c r="H33" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
@@ -1665,12 +2117,24 @@
       <c r="F34">
         <v>1311.9175</v>
       </c>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
+      <c r="H34" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -1691,12 +2155,24 @@
       <c r="F35">
         <v>1053.47</v>
       </c>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
+      <c r="H35" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
@@ -1717,12 +2193,24 @@
       <c r="F36">
         <v>1342.7</v>
       </c>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
+      <c r="H36" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
@@ -1743,12 +2231,24 @@
       <c r="F37">
         <v>1657.22</v>
       </c>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
+      <c r="H37" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -1769,12 +2269,24 @@
       <c r="F38">
         <v>2003.1</v>
       </c>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
+      <c r="H38" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
@@ -1795,12 +2307,24 @@
       <c r="F39">
         <v>881.66</v>
       </c>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
+      <c r="H39" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
@@ -1821,12 +2345,24 @@
       <c r="F40">
         <v>1199.1249</v>
       </c>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
+      <c r="H40" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41">
@@ -1847,12 +2383,24 @@
       <c r="F41">
         <v>1612.33</v>
       </c>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
+      <c r="H41" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="42" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42">
@@ -1873,12 +2421,24 @@
       <c r="F42">
         <v>2278.64</v>
       </c>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
+      <c r="H42" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H43" s="1"/>
